--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="markets" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="530">
   <si>
     <t>longitude</t>
   </si>
@@ -115,9 +115,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>SA: 7 am to 12 pm</t>
-  </si>
-  <si>
     <t>Open through the fall</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Columbia Heights</t>
   </si>
   <si>
-    <t>M: 2 to 5 pm</t>
-  </si>
-  <si>
     <t>Opens mid-July</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>http://exploreafton.com/afton-farmers-market/</t>
   </si>
   <si>
-    <t>TH: 4 to 7 pm</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>651-227-8101</t>
   </si>
   <si>
-    <t>TU: 2 to 6 pm</t>
-  </si>
-  <si>
     <t>Ends Oct. 31</t>
   </si>
   <si>
@@ -190,9 +178,6 @@
     <t>Anoka</t>
   </si>
   <si>
-    <t>M: 2 to 6pm</t>
-  </si>
-  <si>
     <t>Mid-July through the fall</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>http://stpaulfarmersmarket.com/products/locations/apple-valley-market</t>
   </si>
   <si>
-    <t>SA: 8 am to 1 pm</t>
-  </si>
-  <si>
     <t>June 10-Oct. 28</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>763-682-3758</t>
   </si>
   <si>
-    <t>SA: 8 am to 12 pm</t>
-  </si>
-  <si>
     <t>Ends Oct. 28</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/burnsville-market</t>
   </si>
   <si>
-    <t>TH: 12 pm to 5 pm</t>
-  </si>
-  <si>
     <t>Ends Oct 26</t>
   </si>
   <si>
@@ -427,9 +403,6 @@
     <t>http://chisagocityfarmersmarket.com</t>
   </si>
   <si>
-    <t>F: 2 to 6:30 pm</t>
-  </si>
-  <si>
     <t>May 19-Oct. 20</t>
   </si>
   <si>
@@ -445,9 +418,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/como-park-dockside</t>
   </si>
   <si>
-    <t>TH: 2 to 6 pm</t>
-  </si>
-  <si>
     <t>June 22-Sept. 7</t>
   </si>
   <si>
@@ -514,9 +484,6 @@
     <t>http://www.cityofeagan.com/marketfest</t>
   </si>
   <si>
-    <t>W: 4 to 8 pm</t>
-  </si>
-  <si>
     <t>June 7-Sept. 27</t>
   </si>
   <si>
@@ -574,9 +541,6 @@
     <t>http://www.ci.farmington.mn.us/cms/One.aspx?portalId=745759&amp;pageId=4311866</t>
   </si>
   <si>
-    <t>TH: 2:30 to 6:30 pm</t>
-  </si>
-  <si>
     <t>June 8-Oct. 12</t>
   </si>
   <si>
@@ -622,12 +586,6 @@
     <t>612-440-2648</t>
   </si>
   <si>
-    <t>M: 9 am to 1 pm</t>
-  </si>
-  <si>
-    <t>SU: 9 am to 1 pm</t>
-  </si>
-  <si>
     <t>June 18-Oct. 1</t>
   </si>
   <si>
@@ -685,9 +643,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/inver-grove-heights</t>
   </si>
   <si>
-    <t>SU: 8 a.m. to 1 p.m.</t>
-  </si>
-  <si>
     <t>June 18-Oct. 8</t>
   </si>
   <si>
@@ -724,9 +679,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/lakeville-saturday</t>
   </si>
   <si>
-    <t>SA: 9 am to 1 pm</t>
-  </si>
-  <si>
     <t>Lakeville Area Arts Center</t>
   </si>
   <si>
@@ -835,9 +787,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/aldrich-arena-market</t>
   </si>
   <si>
-    <t>W: 8 am to 12 pm</t>
-  </si>
-  <si>
     <t>May 10-Oct. 25</t>
   </si>
   <si>
@@ -967,9 +916,6 @@
     <t>763-271-7124</t>
   </si>
   <si>
-    <t>TH: 3:30 to 7 pm</t>
-  </si>
-  <si>
     <t>May 11-Oct. 19</t>
   </si>
   <si>
@@ -994,9 +940,6 @@
     <t>mfmm578@gmail.com</t>
   </si>
   <si>
-    <t>SA 8 am-12:30 pm</t>
-  </si>
-  <si>
     <t>5/14 - 10/8</t>
   </si>
   <si>
@@ -1024,9 +967,6 @@
     <t>info@newhopemarket.org</t>
   </si>
   <si>
-    <t>SA 7 am-12 pm</t>
-  </si>
-  <si>
     <t>6/18 - 10/8</t>
   </si>
   <si>
@@ -1093,9 +1033,6 @@
     <t>651-747-3872</t>
   </si>
   <si>
-    <t>W: 2 to 6 pm</t>
-  </si>
-  <si>
     <t>ÊJune 7-Oct. 4</t>
   </si>
   <si>
@@ -1117,9 +1054,6 @@
     <t>kbroden@ci.osseo.mn.us</t>
   </si>
   <si>
-    <t>TU: 3:00pm-8:00 pm</t>
-  </si>
-  <si>
     <t>7/7-9/22</t>
   </si>
   <si>
@@ -1168,9 +1102,6 @@
     <t>763-389-2567</t>
   </si>
   <si>
-    <t>SA: 8:30 am to 12 pm</t>
-  </si>
-  <si>
     <t>Prior Lake Farmers Market</t>
   </si>
   <si>
@@ -1186,9 +1117,6 @@
     <t>952-447-0263</t>
   </si>
   <si>
-    <t xml:space="preserve">SA: 8 am to 12 pm </t>
-  </si>
-  <si>
     <t>Richfield Farmers Market</t>
   </si>
   <si>
@@ -1240,9 +1168,6 @@
     <t>507-273-8232</t>
   </si>
   <si>
-    <t>SA: 7:30 am to 12 pm</t>
-  </si>
-  <si>
     <t>Rockford Farmers Market</t>
   </si>
   <si>
@@ -1252,9 +1177,6 @@
     <t>http://rockfordmarket.weebly.com</t>
   </si>
   <si>
-    <t>F: 3 to 6:30 pm</t>
-  </si>
-  <si>
     <t>June 2-Oct. 13</t>
   </si>
   <si>
@@ -1300,9 +1222,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/rosemount-market</t>
   </si>
   <si>
-    <t>TU: 1 to 5 pm</t>
-  </si>
-  <si>
     <t>Roseville Farmers Market</t>
   </si>
   <si>
@@ -1315,9 +1234,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/roseville-market</t>
   </si>
   <si>
-    <t>TU: 8 am to 12 pm</t>
-  </si>
-  <si>
     <t>Ends Oct 31</t>
   </si>
   <si>
@@ -1333,9 +1249,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/savage-market</t>
   </si>
   <si>
-    <t>SU: 8 am to 1 pm</t>
-  </si>
-  <si>
     <t>ÊJune 4-Oct. 29</t>
   </si>
   <si>
@@ -1354,9 +1267,6 @@
     <t>651-490-4734</t>
   </si>
   <si>
-    <t>TU: 3 to 7 pm</t>
-  </si>
-  <si>
     <t>June 6-Sept. 12</t>
   </si>
   <si>
@@ -1384,9 +1294,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/st-paul-farmers-market-downtown</t>
   </si>
   <si>
-    <t>SA: 6 am to 1 pm</t>
-  </si>
-  <si>
     <t>St. Thomas More Church Farmers Market</t>
   </si>
   <si>
@@ -1396,9 +1303,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/st-thomas-more-church-summer-hours</t>
   </si>
   <si>
-    <t>F: 1:15 to 5 pm</t>
-  </si>
-  <si>
     <t>Ends Oct. 27</t>
   </si>
   <si>
@@ -1522,9 +1426,6 @@
     <t>http://stpaulfarmersmarket.com/members/locations/west-saint-paul-market</t>
   </si>
   <si>
-    <t>F: 8 am to 12 pm</t>
-  </si>
-  <si>
     <t>June 16-Oct. 27</t>
   </si>
   <si>
@@ -1558,9 +1459,6 @@
     <t>http://whittierfarmersmarket.com</t>
   </si>
   <si>
-    <t>SA: 8:30 am-1 pm</t>
-  </si>
-  <si>
     <t>June 24-Sept. 30</t>
   </si>
   <si>
@@ -1588,9 +1486,6 @@
     <t>Zimmerman</t>
   </si>
   <si>
-    <t>TU: 2:30 to 6 pm</t>
-  </si>
-  <si>
     <t>June 6-Oct. 13</t>
   </si>
   <si>
@@ -1603,26 +1498,144 @@
     <t>http://stpaulfarmersmarket.com</t>
   </si>
   <si>
-    <t>TU: 10 am to 1:30 pm</t>
-  </si>
-  <si>
-    <t>TH: 10 am to 1:30 pm</t>
-  </si>
-  <si>
     <t>June 13-Oct. 12</t>
   </si>
   <si>
     <t>Source: U.S. Census Bureau, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Ramsey Farmers Market</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>7550 Sunwood Drive NW</t>
+  </si>
+  <si>
+    <t>TH: 3-7pm</t>
+  </si>
+  <si>
+    <t>TU: 2:30-6pm</t>
+  </si>
+  <si>
+    <t>TU: 10am-1:30pm</t>
+  </si>
+  <si>
+    <t>TH: 10am-1:30pm</t>
+  </si>
+  <si>
+    <t>TH: 12pmto 5pm</t>
+  </si>
+  <si>
+    <t>SA 8am-12:30pm</t>
+  </si>
+  <si>
+    <t>SA 7am-12pm</t>
+  </si>
+  <si>
+    <t>TU: 3:00pm-8:00pm</t>
+  </si>
+  <si>
+    <t>SA: 7am-12pm</t>
+  </si>
+  <si>
+    <t>SA: 8am-12pm</t>
+  </si>
+  <si>
+    <t>M: 9am-1pm</t>
+  </si>
+  <si>
+    <t>W: 8am-12pm</t>
+  </si>
+  <si>
+    <t>SA: 8:30am-12pm</t>
+  </si>
+  <si>
+    <t>TU: 8am-12pm</t>
+  </si>
+  <si>
+    <t>SU: 8am-1pm</t>
+  </si>
+  <si>
+    <t>SA: 6am-1pm</t>
+  </si>
+  <si>
+    <t>F: 8am-12pm</t>
+  </si>
+  <si>
+    <t>M: 2-5pm</t>
+  </si>
+  <si>
+    <t>TH: 4-7pm</t>
+  </si>
+  <si>
+    <t>TU: 2-6pm</t>
+  </si>
+  <si>
+    <t>M: 2-6pm</t>
+  </si>
+  <si>
+    <t>F: 2-6:30pm</t>
+  </si>
+  <si>
+    <t>TH: 2-6pm</t>
+  </si>
+  <si>
+    <t>W: 4-8pm</t>
+  </si>
+  <si>
+    <t>TH: 2:30-6:30pm</t>
+  </si>
+  <si>
+    <t>SU: 8 a.m.-1 p.m.</t>
+  </si>
+  <si>
+    <t>TH: 3:30-7pm</t>
+  </si>
+  <si>
+    <t>W: 2-6pm</t>
+  </si>
+  <si>
+    <t>F: 3-6:30pm</t>
+  </si>
+  <si>
+    <t>TU: 1-5pm</t>
+  </si>
+  <si>
+    <t>TU: 3-7pm</t>
+  </si>
+  <si>
+    <t>F: 1:15-5pm</t>
+  </si>
+  <si>
+    <t>Mid-July through early fall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1645,13 +1658,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1981,9 +2026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -2096,13 +2143,13 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
+        <v>505</v>
+      </c>
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2">
         <v>60</v>
@@ -2122,13 +2169,13 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
       </c>
       <c r="G3">
         <v>55421</v>
@@ -2143,13 +2190,13 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>514</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W3">
         <v>60</v>
@@ -2169,19 +2216,19 @@
         <v>56</v>
       </c>
       <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
       </c>
       <c r="G4">
         <v>55001</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
@@ -2190,16 +2237,16 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>515</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4">
         <v>60</v>
@@ -2219,37 +2266,37 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>55304</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>516</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W5">
         <v>60</v>
@@ -2269,13 +2316,13 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>55303</v>
@@ -2290,13 +2337,13 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>517</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W6">
         <v>60</v>
@@ -2316,37 +2363,37 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>55124</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W7">
         <v>60</v>
@@ -2366,43 +2413,43 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>55431</v>
       </c>
       <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" t="s">
         <v>67</v>
       </c>
-      <c r="I8" t="s">
+      <c r="U8" t="s">
         <v>68</v>
       </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" t="s">
-        <v>74</v>
-      </c>
       <c r="V8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W8">
         <v>60</v>
@@ -2422,43 +2469,43 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G9">
         <v>55443</v>
       </c>
       <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" t="s">
         <v>78</v>
       </c>
-      <c r="I9" t="s">
+      <c r="U9" t="s">
         <v>79</v>
       </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="S9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" t="s">
-        <v>85</v>
-      </c>
       <c r="V9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W9">
         <v>60</v>
@@ -2478,37 +2525,37 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G10">
         <v>55313</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
         <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>91</v>
+        <v>506</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W10">
         <v>60</v>
@@ -2528,37 +2575,37 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G11">
         <v>55337</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="V11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W11">
         <v>60</v>
@@ -2578,37 +2625,37 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G12">
         <v>55337</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="V12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W12">
         <v>60</v>
@@ -2628,37 +2675,37 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G13">
         <v>55402</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="S13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W13">
         <v>60</v>
@@ -2678,43 +2725,43 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G14">
         <v>55435</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="S14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="U14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="V14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W14">
         <v>60</v>
@@ -2734,43 +2781,43 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G15">
         <v>55316</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="V15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W15">
         <v>60</v>
@@ -2790,19 +2837,19 @@
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G16">
         <v>55013</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
@@ -2811,16 +2858,16 @@
         <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>518</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="V16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W16">
         <v>60</v>
@@ -2840,37 +2887,37 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G17">
         <v>55103</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
         <v>30</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>519</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="V17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W17">
         <v>60</v>
@@ -2890,43 +2937,43 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G18">
         <v>55327</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="T18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="U18" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="V18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W18">
         <v>60</v>
@@ -2946,13 +2993,13 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G19">
         <v>55401</v>
@@ -2961,22 +3008,22 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="S19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="V19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W19">
         <v>60</v>
@@ -2996,19 +3043,19 @@
         <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G20">
         <v>55121</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>
@@ -3017,13 +3064,13 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>520</v>
       </c>
       <c r="U20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="V20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W20">
         <v>60</v>
@@ -3043,19 +3090,19 @@
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G21">
         <v>55330</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I21" t="s">
         <v>30</v>
@@ -3064,16 +3111,16 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>141</v>
+        <v>519</v>
       </c>
       <c r="S21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="V21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W21">
         <v>60</v>
@@ -3093,43 +3140,43 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G22">
         <v>55331</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="S22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T22" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="U22" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="V22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W22">
         <v>60</v>
@@ -3149,19 +3196,19 @@
         <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G23">
         <v>55024</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
         <v>30</v>
@@ -3170,13 +3217,13 @@
         <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>184</v>
+        <v>521</v>
       </c>
       <c r="U23" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W23">
         <v>60</v>
@@ -3196,43 +3243,43 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G24">
         <v>55409</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q24" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="S24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T24" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="U24" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="V24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W24">
         <v>60</v>
@@ -3252,40 +3299,40 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G25">
         <v>55427</v>
       </c>
       <c r="H25" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
         <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="R25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="S25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="V25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W25">
         <v>60</v>
@@ -3305,43 +3352,43 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G26">
         <v>55343</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="Q26" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="S26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T26" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="U26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="V26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W26">
         <v>60</v>
@@ -3361,19 +3408,19 @@
         <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G27">
         <v>54016</v>
       </c>
       <c r="H27" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="I27" t="s">
         <v>30</v>
@@ -3382,16 +3429,16 @@
         <v>30</v>
       </c>
       <c r="Q27" t="s">
-        <v>91</v>
+        <v>506</v>
       </c>
       <c r="S27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="V27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W27">
         <v>60</v>
@@ -3411,37 +3458,37 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G28">
         <v>55077</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
         <v>30</v>
       </c>
       <c r="R28" t="s">
-        <v>221</v>
+        <v>522</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="V28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W28">
         <v>60</v>
@@ -3461,43 +3508,43 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G29">
         <v>55409</v>
       </c>
       <c r="H29" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="R29" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="S29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T29" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="U29" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="V29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W29">
         <v>60</v>
@@ -3517,37 +3564,37 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G30">
         <v>55044</v>
       </c>
       <c r="H30" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
         <v>30</v>
       </c>
       <c r="Q30" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="V30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W30">
         <v>60</v>
@@ -3567,43 +3614,43 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G31">
         <v>55410</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="J31" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="R31" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="S31" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="T31" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="U31" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="V31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W31">
         <v>60</v>
@@ -3623,61 +3670,61 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G32">
         <v>55405</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="P32" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="Q32" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="R32" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="S32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T32" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="U32" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="V32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W32">
         <v>60</v>
@@ -3697,43 +3744,43 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="G33">
         <v>55369</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="I33" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="S33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T33" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="U33" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="V33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W33">
         <v>60</v>
@@ -3753,37 +3800,37 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G34">
         <v>55109</v>
       </c>
       <c r="H34" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
         <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>271</v>
+        <v>508</v>
       </c>
       <c r="S34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="V34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W34">
         <v>60</v>
@@ -3803,40 +3850,40 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G35">
         <v>55427</v>
       </c>
       <c r="H35" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="I35" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="R35" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="S35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T35" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="V35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W35">
         <v>60</v>
@@ -3856,46 +3903,46 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G36">
         <v>55407</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Q36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T36" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W36">
         <v>60</v>
@@ -3915,43 +3962,43 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E37" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G37">
         <v>55401</v>
       </c>
       <c r="H37" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K37" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="Q37" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="S37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T37" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W37">
         <v>60</v>
@@ -3971,43 +4018,43 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G38">
         <v>55487</v>
       </c>
       <c r="H38" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s">
         <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="S38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T38" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="U38" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="V38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W38">
         <v>60</v>
@@ -4027,43 +4074,43 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G39">
         <v>55345</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="S39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T39" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="U39" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="V39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W39">
         <v>60</v>
@@ -4083,37 +4130,37 @@
         <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G40">
         <v>55362</v>
       </c>
       <c r="H40" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s">
         <v>30</v>
       </c>
       <c r="O40" t="s">
-        <v>315</v>
+        <v>523</v>
       </c>
       <c r="S40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="V40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W40">
         <v>60</v>
@@ -4133,43 +4180,43 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E41" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G41">
         <v>55364</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="I41" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="Q41" t="s">
-        <v>324</v>
+        <v>502</v>
       </c>
       <c r="S41" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T41" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="U41" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="V41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W41">
         <v>60</v>
@@ -4189,43 +4236,43 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G42">
         <v>55428</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="J42" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="Q42" t="s">
-        <v>334</v>
+        <v>503</v>
       </c>
       <c r="S42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T42" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="U42" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="V42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W42">
         <v>60</v>
@@ -4245,43 +4292,43 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E43" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G43">
         <v>55417</v>
       </c>
       <c r="H43" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="I43" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K43" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="S43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T43" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="U43" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="V43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W43">
         <v>60</v>
@@ -4301,43 +4348,43 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E44" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G44">
         <v>55413</v>
       </c>
       <c r="H44" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="I44" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="Q44" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="S44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T44" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="U44" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="V44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W44">
         <v>60</v>
@@ -4357,37 +4404,37 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="G45">
         <v>55128</v>
       </c>
       <c r="H45" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="K45" t="s">
         <v>30</v>
       </c>
       <c r="O45" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="S45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="V45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W45">
         <v>60</v>
@@ -4407,43 +4454,43 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="G46">
         <v>55369</v>
       </c>
       <c r="H46" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K46" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s">
-        <v>365</v>
+        <v>504</v>
       </c>
       <c r="S46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T46" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="U46" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="V46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W46">
         <v>60</v>
@@ -4463,43 +4510,43 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="E47" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="G47">
         <v>55447</v>
       </c>
       <c r="H47" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="N47" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="S47" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T47" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="U47" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="V47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W47">
         <v>60</v>
@@ -4519,37 +4566,37 @@
         <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E48" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="G48">
         <v>55371</v>
       </c>
       <c r="H48" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="K48" t="s">
         <v>30</v>
       </c>
       <c r="Q48" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U48" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W48">
         <v>60</v>
@@ -4569,37 +4616,37 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E49" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="F49" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="G49">
         <v>55372</v>
       </c>
       <c r="H49" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="K49" t="s">
         <v>30</v>
       </c>
       <c r="Q49" t="s">
-        <v>388</v>
+        <v>506</v>
       </c>
       <c r="S49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W49">
         <v>60</v>
@@ -4619,43 +4666,43 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="F50" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="G50">
         <v>55423</v>
       </c>
       <c r="H50" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I50" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="J50" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K50" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="Q50" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="S50" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T50" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="U50" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="V50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W50">
         <v>60</v>
@@ -4675,34 +4722,34 @@
         <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="E51" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="F51" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="G51">
         <v>55057</v>
       </c>
       <c r="H51" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s">
         <v>30</v>
       </c>
       <c r="Q51" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="S51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U51" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="V51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W51">
         <v>60</v>
@@ -4722,37 +4769,37 @@
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E52" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="G52">
         <v>55904</v>
       </c>
       <c r="H52" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="K52" t="s">
         <v>30</v>
       </c>
       <c r="Q52" t="s">
-        <v>406</v>
+        <v>196</v>
       </c>
       <c r="S52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U52" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W52">
         <v>60</v>
@@ -4772,19 +4819,19 @@
         <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E53" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G53">
         <v>55373</v>
       </c>
       <c r="H53" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="I53" t="s">
         <v>30</v>
@@ -4793,16 +4840,16 @@
         <v>30</v>
       </c>
       <c r="P53" t="s">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="S53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U53" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="V53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W53">
         <v>60</v>
@@ -4822,43 +4869,43 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="E54" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="F54" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="G54">
         <v>55347</v>
       </c>
       <c r="H54" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="S54" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T54" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="U54" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="V54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W54">
         <v>60</v>
@@ -4878,37 +4925,37 @@
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E55" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="F55" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="G55">
         <v>55068</v>
       </c>
       <c r="H55" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
         <v>30</v>
       </c>
       <c r="M55" t="s">
-        <v>426</v>
+        <v>526</v>
       </c>
       <c r="S55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U55" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="V55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W55">
         <v>60</v>
@@ -4928,37 +4975,37 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="E56" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="G56">
         <v>55113</v>
       </c>
       <c r="H56" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s">
         <v>30</v>
       </c>
       <c r="N56" t="s">
-        <v>431</v>
+        <v>510</v>
       </c>
       <c r="S56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U56" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="V56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W56">
         <v>60</v>
@@ -4978,37 +5025,37 @@
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="E57" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="F57" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="G57">
         <v>55378</v>
       </c>
       <c r="H57" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s">
         <v>30</v>
       </c>
       <c r="R57" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="S57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U57" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="V57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W57">
         <v>60</v>
@@ -5028,37 +5075,37 @@
         <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="E58" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="G58">
         <v>55126</v>
       </c>
       <c r="H58" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="I58" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s">
         <v>30</v>
       </c>
       <c r="M58" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="S58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U58" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="V58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W58">
         <v>60</v>
@@ -5078,34 +5125,34 @@
         <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="E59" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="G59">
         <v>55075</v>
       </c>
       <c r="H59" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
         <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="U59" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="V59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W59">
         <v>60</v>
@@ -5125,37 +5172,37 @@
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="E60" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G60">
         <v>55101</v>
       </c>
       <c r="H60" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
         <v>30</v>
       </c>
       <c r="Q60" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="R60" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="S60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W60">
         <v>60</v>
@@ -5175,37 +5222,37 @@
         <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E61" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G61">
         <v>55105</v>
       </c>
       <c r="H61" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
         <v>30</v>
       </c>
       <c r="P61" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="S61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U61" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="V61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W61">
         <v>60</v>
@@ -5225,40 +5272,40 @@
         <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="E62" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G62">
         <v>55407</v>
       </c>
       <c r="H62" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="I62" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="J62" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="K62" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="O62" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="S62" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T62" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="V62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W62">
         <v>60</v>
@@ -5278,43 +5325,43 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="E63" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G63">
         <v>55455</v>
       </c>
       <c r="H63" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="I63" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="J63" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K63" t="s">
         <v>30</v>
       </c>
       <c r="N63" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="S63" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T63" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="U63" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="V63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W63">
         <v>60</v>
@@ -5334,37 +5381,37 @@
         <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="E64" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="F64" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="G64">
         <v>55110</v>
       </c>
       <c r="H64" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s">
         <v>30</v>
       </c>
       <c r="N64" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="S64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U64" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="V64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W64">
         <v>60</v>
@@ -5384,43 +5431,43 @@
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="E65" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="F65" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="G65">
         <v>55391</v>
       </c>
       <c r="H65" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="I65" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="J65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="S65" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T65" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="U65" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="V65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W65">
         <v>60</v>
@@ -5440,43 +5487,43 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="E66" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G66">
         <v>55411</v>
       </c>
       <c r="H66" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="I66" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="J66" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="K66" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="P66" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="S66" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T66" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="U66" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="V66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W66">
         <v>60</v>
@@ -5496,37 +5543,37 @@
         <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="E67" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="F67" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="G67">
         <v>55118</v>
       </c>
       <c r="H67" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s">
         <v>30</v>
       </c>
       <c r="P67" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="S67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U67" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="V67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W67">
         <v>60</v>
@@ -5546,34 +5593,34 @@
         <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="E68" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="F68" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="G68">
         <v>55110</v>
       </c>
       <c r="H68" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="I68" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="K68" t="s">
         <v>30</v>
       </c>
       <c r="P68" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="U68" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="V68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W68">
         <v>60</v>
@@ -5593,19 +5640,19 @@
         <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="E69" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="F69" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="G69">
         <v>55408</v>
       </c>
       <c r="H69" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="I69" t="s">
         <v>30</v>
@@ -5614,16 +5661,16 @@
         <v>30</v>
       </c>
       <c r="Q69" t="s">
-        <v>512</v>
+        <v>180</v>
       </c>
       <c r="S69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U69" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="V69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W69">
         <v>60</v>
@@ -5643,37 +5690,37 @@
         <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="E70" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="F70" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="G70">
         <v>55125</v>
       </c>
       <c r="H70" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s">
         <v>30</v>
       </c>
       <c r="R70" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="S70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U70" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="V70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W70">
         <v>60</v>
@@ -5693,34 +5740,34 @@
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="E71" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="F71" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="G71">
         <v>55398</v>
       </c>
       <c r="H71" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="K71" t="s">
         <v>30</v>
       </c>
       <c r="M71" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="S71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U71" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="V71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W71">
         <v>60</v>
@@ -5740,50 +5787,101 @@
         <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="E72" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="F72" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G72">
         <v>55101</v>
       </c>
       <c r="H72" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s">
         <v>30</v>
       </c>
       <c r="M72" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="O72" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="S72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U72" t="s">
+        <v>492</v>
+      </c>
+      <c r="V72" t="s">
+        <v>32</v>
+      </c>
+      <c r="W72">
+        <v>60</v>
+      </c>
+      <c r="X72">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73">
+        <v>-93.459671999999998</v>
+      </c>
+      <c r="B73">
+        <v>45.232469000000002</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73" t="s">
+        <v>494</v>
+      </c>
+      <c r="E73" t="s">
+        <v>496</v>
+      </c>
+      <c r="F73" t="s">
+        <v>495</v>
+      </c>
+      <c r="G73">
+        <v>55303</v>
+      </c>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73" t="s">
+        <v>497</v>
+      </c>
+      <c r="S73" t="s">
+        <v>41</v>
+      </c>
+      <c r="U73" t="s">
         <v>529</v>
       </c>
-      <c r="V72" t="s">
-        <v>33</v>
-      </c>
-      <c r="W72">
-        <v>60</v>
-      </c>
-      <c r="X72">
+      <c r="V73" t="s">
+        <v>32</v>
+      </c>
+      <c r="W73">
+        <v>60</v>
+      </c>
+      <c r="X73">
         <v>-60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5796,7 +5894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5804,7 +5902,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="3540" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="markets" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="558">
   <si>
     <t>longitude</t>
   </si>
@@ -94,9 +95,6 @@
     <t>bearing</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
     <t>Anoka County Farmers Market (Blaine)</t>
   </si>
   <si>
@@ -1610,13 +1608,100 @@
   </si>
   <si>
     <t>Mid-July through early fall</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>Twin Cities metro area farmer's market data for 2017</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Latitude coodinate</t>
+  </si>
+  <si>
+    <t>Market ID number</t>
+  </si>
+  <si>
+    <t>Market name</t>
+  </si>
+  <si>
+    <t>Market address</t>
+  </si>
+  <si>
+    <t>Market city</t>
+  </si>
+  <si>
+    <t>Market zip code</t>
+  </si>
+  <si>
+    <t>Market website URL</t>
+  </si>
+  <si>
+    <t>Market phone number</t>
+  </si>
+  <si>
+    <t>Source of market information</t>
+  </si>
+  <si>
+    <t>Market email address</t>
+  </si>
+  <si>
+    <t>Market's Monday hours</t>
+  </si>
+  <si>
+    <t>Market's Tuesday hours</t>
+  </si>
+  <si>
+    <t>Market's Wednesday hours</t>
+  </si>
+  <si>
+    <t>Market's Thursday hours</t>
+  </si>
+  <si>
+    <t>Market's Friday hours</t>
+  </si>
+  <si>
+    <t>Market's Saturday hours</t>
+  </si>
+  <si>
+    <t>Market's Sunday hours</t>
+  </si>
+  <si>
+    <t>Does the market accept EBT? (Yes, No, Pending, Unknown, Many Vendors, Some Vendors)</t>
+  </si>
+  <si>
+    <t>Season market is open</t>
+  </si>
+  <si>
+    <t>Further notes</t>
+  </si>
+  <si>
+    <t>Designation (Farmers Market)</t>
+  </si>
+  <si>
+    <t>Map bearing limit</t>
+  </si>
+  <si>
+    <t>Map pitch limit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1640,6 +1725,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1658,7 +1752,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1676,11 +1770,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1689,6 +1786,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1697,6 +1795,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2026,15 +2125,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,767 +2206,860 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
-        <v>-93.232900000000001</v>
+        <v>-93.301375530000001</v>
       </c>
       <c r="B2">
-        <v>45.131810000000002</v>
+        <v>44.825416879999999</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>55434</v>
+        <v>55431</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2">
+        <v>60</v>
+      </c>
+      <c r="X2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>-93.357500619999996</v>
+      </c>
+      <c r="B3">
+        <v>45.112709899999999</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>55443</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3">
+        <v>60</v>
+      </c>
+      <c r="X3">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>-93.395536980000003</v>
+      </c>
+      <c r="B4">
+        <v>45.174178730000001</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>55316</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4">
+        <v>60</v>
+      </c>
+      <c r="X4">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>-93.566922980000001</v>
+      </c>
+      <c r="B5">
+        <v>44.902810700000003</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5">
+        <v>55331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" t="s">
+        <v>167</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5">
+        <v>60</v>
+      </c>
+      <c r="X5">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>-93.41156024</v>
+      </c>
+      <c r="B6">
+        <v>44.923783309999997</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6">
+        <v>55343</v>
+      </c>
+      <c r="H6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>195</v>
+      </c>
+      <c r="S6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" t="s">
+        <v>196</v>
+      </c>
+      <c r="U6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6">
+        <v>60</v>
+      </c>
+      <c r="X6">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>-93.27801925</v>
+      </c>
+      <c r="B7">
+        <v>44.924727220000001</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7">
+        <v>55409</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" t="s">
+        <v>211</v>
+      </c>
+      <c r="S7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" t="s">
+        <v>212</v>
+      </c>
+      <c r="U7" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7">
+        <v>60</v>
+      </c>
+      <c r="X7">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>-93.443520269999993</v>
+      </c>
+      <c r="B8">
+        <v>45.103781750000003</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8">
+        <v>55369</v>
+      </c>
+      <c r="H8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" t="s">
+        <v>248</v>
+      </c>
+      <c r="U8" t="s">
+        <v>249</v>
+      </c>
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8">
+        <v>60</v>
+      </c>
+      <c r="X8">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>-93.238939920000007</v>
+      </c>
+      <c r="B9">
+        <v>44.947987689999998</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>55407</v>
+      </c>
+      <c r="H9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M9" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" t="s">
+        <v>269</v>
+      </c>
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9">
+        <v>60</v>
+      </c>
+      <c r="X9">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>-93.2561532</v>
+      </c>
+      <c r="B10">
+        <v>44.978557719999998</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10">
+        <v>55401</v>
+      </c>
+      <c r="H10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>275</v>
+      </c>
+      <c r="S10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" t="s">
+        <v>276</v>
+      </c>
+      <c r="U10" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10">
+        <v>60</v>
+      </c>
+      <c r="X10">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>-93.267168600000005</v>
+      </c>
+      <c r="B11">
+        <v>44.975266300000001</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>55487</v>
+      </c>
+      <c r="H11" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>505</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2">
-        <v>60</v>
-      </c>
-      <c r="X2">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
-        <v>-93.235889999999998</v>
-      </c>
-      <c r="B3">
-        <v>45.048969999999997</v>
-      </c>
-      <c r="C3">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>55421</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>514</v>
-      </c>
-      <c r="U3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3">
-        <v>60</v>
-      </c>
-      <c r="X3">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
-        <v>-92.783293479999998</v>
-      </c>
-      <c r="B4">
-        <v>44.899259460000003</v>
-      </c>
-      <c r="C4">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <v>55001</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>515</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4">
-        <v>60</v>
-      </c>
-      <c r="X4">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5">
-        <v>-93.356430000000003</v>
-      </c>
-      <c r="B5">
-        <v>45.218960000000003</v>
-      </c>
-      <c r="C5">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5">
-        <v>55304</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>516</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5">
-        <v>60</v>
-      </c>
-      <c r="X5">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
-        <v>-93.383949999999999</v>
-      </c>
-      <c r="B6">
-        <v>45.197560000000003</v>
-      </c>
-      <c r="C6">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6">
-        <v>55303</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>517</v>
-      </c>
-      <c r="U6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6">
-        <v>60</v>
-      </c>
-      <c r="X6">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7">
-        <v>-93.208690000000004</v>
-      </c>
-      <c r="B7">
-        <v>44.734789999999997</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7">
-        <v>55124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="O11" t="s">
+        <v>281</v>
+      </c>
+      <c r="S11" t="s">
         <v>65</v>
       </c>
-      <c r="S7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7">
-        <v>60</v>
-      </c>
-      <c r="X7">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8">
-        <v>-93.301375530000001</v>
-      </c>
-      <c r="B8">
-        <v>44.825416879999999</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>55431</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="T11" t="s">
+        <v>282</v>
+      </c>
+      <c r="U11" t="s">
+        <v>283</v>
+      </c>
+      <c r="V11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11">
+        <v>60</v>
+      </c>
+      <c r="X11">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>-93.28591978</v>
+      </c>
+      <c r="B12">
+        <v>44.981227310000001</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12">
+        <v>55405</v>
+      </c>
+      <c r="H12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="s">
+        <v>234</v>
+      </c>
+      <c r="N12" t="s">
+        <v>235</v>
+      </c>
+      <c r="O12" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>238</v>
+      </c>
+      <c r="R12" t="s">
+        <v>239</v>
+      </c>
+      <c r="S12" t="s">
         <v>65</v>
       </c>
-      <c r="S8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8">
-        <v>60</v>
-      </c>
-      <c r="X8">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9">
-        <v>-93.357500619999996</v>
-      </c>
-      <c r="B9">
-        <v>45.112709899999999</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9">
-        <v>55443</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" t="s">
-        <v>79</v>
-      </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9">
-        <v>60</v>
-      </c>
-      <c r="X9">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10">
-        <v>-93.874388999999994</v>
-      </c>
-      <c r="B10">
-        <v>45.173301000000002</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10">
-        <v>55313</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>506</v>
-      </c>
-      <c r="S10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" t="s">
-        <v>85</v>
-      </c>
-      <c r="V10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10">
-        <v>60</v>
-      </c>
-      <c r="X10">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11">
-        <v>-93.281549999999996</v>
-      </c>
-      <c r="B11">
-        <v>44.772419999999997</v>
-      </c>
-      <c r="C11">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11">
-        <v>55337</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="T12" t="s">
+        <v>240</v>
+      </c>
+      <c r="U12" t="s">
+        <v>241</v>
+      </c>
+      <c r="V12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12">
+        <v>60</v>
+      </c>
+      <c r="X12">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>-93.465455669999997</v>
+      </c>
+      <c r="B13">
+        <v>44.940518529999999</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13">
+        <v>55345</v>
+      </c>
+      <c r="H13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="M13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S13" t="s">
         <v>65</v>
       </c>
-      <c r="S11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U11" t="s">
-        <v>90</v>
-      </c>
-      <c r="V11" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11">
-        <v>60</v>
-      </c>
-      <c r="X11">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12">
-        <v>-93.230577999999994</v>
-      </c>
-      <c r="B12">
-        <v>44.789363999999999</v>
-      </c>
-      <c r="C12">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12">
-        <v>55337</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" t="s">
-        <v>501</v>
-      </c>
-      <c r="S12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12">
-        <v>60</v>
-      </c>
-      <c r="X12">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13">
-        <v>-93.268997639999995</v>
-      </c>
-      <c r="B13">
-        <v>44.97524739</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="T13" t="s">
+        <v>290</v>
+      </c>
+      <c r="U13" t="s">
+        <v>291</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13">
+        <v>60</v>
+      </c>
+      <c r="X13">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>-93.391522600000002</v>
+      </c>
+      <c r="B14">
+        <v>45.02124937</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14">
+        <v>55428</v>
+      </c>
+      <c r="H14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I14" t="s">
+        <v>311</v>
+      </c>
+      <c r="J14" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>502</v>
+      </c>
+      <c r="S14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14" t="s">
+        <v>314</v>
+      </c>
+      <c r="U14" t="s">
+        <v>315</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14">
+        <v>60</v>
+      </c>
+      <c r="X14">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>-93.262177269999995</v>
+      </c>
+      <c r="B15">
+        <v>44.995133260000003</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" t="s">
         <v>96</v>
       </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13">
-        <v>55402</v>
-      </c>
-      <c r="H13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="G15">
+        <v>55413</v>
+      </c>
+      <c r="H15" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>328</v>
+      </c>
+      <c r="S15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" t="s">
+        <v>329</v>
+      </c>
+      <c r="U15" t="s">
+        <v>330</v>
+      </c>
+      <c r="V15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15">
+        <v>60</v>
+      </c>
+      <c r="X15">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>-93.402580240000006</v>
+      </c>
+      <c r="B16">
+        <v>45.12072336</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16">
+        <v>55369</v>
+      </c>
+      <c r="H16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I16" t="s">
+        <v>341</v>
+      </c>
+      <c r="J16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" t="s">
+        <v>503</v>
+      </c>
+      <c r="S16" t="s">
         <v>101</v>
       </c>
-      <c r="S13" t="s">
-        <v>102</v>
-      </c>
-      <c r="T13" t="s">
-        <v>103</v>
-      </c>
-      <c r="V13" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13">
-        <v>60</v>
-      </c>
-      <c r="X13">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14">
-        <v>-93.32613551</v>
-      </c>
-      <c r="B14">
-        <v>44.866969949999998</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14">
-        <v>55435</v>
-      </c>
-      <c r="H14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" t="s">
-        <v>111</v>
-      </c>
-      <c r="S14" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" t="s">
-        <v>112</v>
-      </c>
-      <c r="U14" t="s">
-        <v>113</v>
-      </c>
-      <c r="V14" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14">
-        <v>60</v>
-      </c>
-      <c r="X14">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15">
-        <v>-93.395536980000003</v>
-      </c>
-      <c r="B15">
-        <v>45.174178730000001</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15">
-        <v>55316</v>
-      </c>
-      <c r="H15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" t="s">
-        <v>120</v>
-      </c>
-      <c r="S15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" t="s">
-        <v>121</v>
-      </c>
-      <c r="U15" t="s">
-        <v>122</v>
-      </c>
-      <c r="V15" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15">
-        <v>60</v>
-      </c>
-      <c r="X15">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16">
-        <v>-92.890249999999995</v>
-      </c>
-      <c r="B16">
-        <v>45.372700000000002</v>
-      </c>
-      <c r="C16">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16">
-        <v>55013</v>
-      </c>
-      <c r="H16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" t="s">
-        <v>518</v>
-      </c>
-      <c r="S16" t="s">
-        <v>41</v>
+      <c r="T16" t="s">
+        <v>343</v>
       </c>
       <c r="U16" t="s">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W16">
         <v>60</v>
@@ -2878,46 +3070,52 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17">
-        <v>-93.144052130000006</v>
+        <v>-93.265853750000005</v>
       </c>
       <c r="B17">
-        <v>44.983633040000001</v>
+        <v>44.887157989999999</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="G17">
-        <v>55103</v>
+        <v>55423</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>367</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>368</v>
+      </c>
+      <c r="J17" t="s">
+        <v>210</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" t="s">
-        <v>519</v>
+        <v>369</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>370</v>
       </c>
       <c r="S17" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="T17" t="s">
+        <v>329</v>
       </c>
       <c r="U17" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W17">
         <v>60</v>
@@ -2928,52 +3126,52 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
-        <v>-93.425967</v>
+        <v>-93.552147840000003</v>
       </c>
       <c r="B18">
-        <v>45.202330000000003</v>
+        <v>45.187066489999999</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>385</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>387</v>
       </c>
       <c r="G18">
-        <v>55327</v>
+        <v>55347</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
-      </c>
-      <c r="P18" t="s">
-        <v>140</v>
+        <v>391</v>
+      </c>
+      <c r="N18" t="s">
+        <v>392</v>
       </c>
       <c r="S18" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="T18" t="s">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="U18" t="s">
-        <v>143</v>
+        <v>394</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W18">
         <v>60</v>
@@ -2984,46 +3182,52 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <v>-93.260828880000005</v>
+        <v>-93.227817450000003</v>
       </c>
       <c r="B19">
-        <v>44.978882470000002</v>
+        <v>44.974341600000002</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>436</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19">
-        <v>55401</v>
+        <v>55455</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>437</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>438</v>
+      </c>
+      <c r="J19" t="s">
+        <v>319</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
-      </c>
-      <c r="M19" t="s">
-        <v>148</v>
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>100</v>
       </c>
       <c r="S19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T19" t="s">
-        <v>149</v>
+        <v>439</v>
+      </c>
+      <c r="U19" t="s">
+        <v>440</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W19">
         <v>60</v>
@@ -3034,43 +3238,52 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <v>-93.172629999999998</v>
+        <v>-93.32613551</v>
       </c>
       <c r="B20">
-        <v>44.83963</v>
+        <v>44.866969949999998</v>
       </c>
       <c r="C20">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="G20">
-        <v>55121</v>
+        <v>55435</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>107</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" t="s">
-        <v>520</v>
+        <v>109</v>
+      </c>
+      <c r="O20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" t="s">
+        <v>101</v>
+      </c>
+      <c r="T20" t="s">
+        <v>111</v>
       </c>
       <c r="U20" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W20">
         <v>60</v>
@@ -3081,46 +3294,52 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>-93.577804</v>
+        <v>-93.315818309999997</v>
       </c>
       <c r="B21">
-        <v>45.305881999999997</v>
+        <v>44.92463549</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="G21">
-        <v>55330</v>
+        <v>55410</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>222</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" t="s">
-        <v>519</v>
+        <v>223</v>
+      </c>
+      <c r="R21" t="s">
+        <v>224</v>
       </c>
       <c r="S21" t="s">
-        <v>41</v>
+        <v>225</v>
+      </c>
+      <c r="T21" t="s">
+        <v>226</v>
       </c>
       <c r="U21" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W21">
         <v>60</v>
@@ -3131,52 +3350,52 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
-        <v>-93.566922980000001</v>
+        <v>-93.324966149999995</v>
       </c>
       <c r="B22">
-        <v>44.902810700000003</v>
+        <v>44.913637350000002</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="G22">
-        <v>55331</v>
+        <v>55409</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
-      </c>
-      <c r="M22" t="s">
-        <v>166</v>
+        <v>178</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>179</v>
       </c>
       <c r="S22" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="T22" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="U22" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W22">
         <v>60</v>
@@ -3187,43 +3406,52 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <v>-93.14864</v>
+        <v>-93.288696079999994</v>
       </c>
       <c r="B23">
-        <v>44.626469999999998</v>
+        <v>44.999326080000003</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>456</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="G23">
-        <v>55024</v>
+        <v>55411</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>457</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>458</v>
+      </c>
+      <c r="J23" t="s">
+        <v>459</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" t="s">
-        <v>521</v>
+        <v>460</v>
+      </c>
+      <c r="P23" t="s">
+        <v>461</v>
+      </c>
+      <c r="S23" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" t="s">
+        <v>141</v>
       </c>
       <c r="U23" t="s">
-        <v>173</v>
+        <v>462</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W23">
         <v>60</v>
@@ -3234,52 +3462,52 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>-93.324966149999995</v>
+        <v>-93.664526010000003</v>
       </c>
       <c r="B24">
-        <v>44.913637350000002</v>
+        <v>44.937047810000003</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="G24">
-        <v>55409</v>
+        <v>55364</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="Q24" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
       <c r="S24" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="T24" t="s">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="U24" t="s">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W24">
         <v>60</v>
@@ -3290,49 +3518,52 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
-        <v>-93.378780000000006</v>
+        <v>-93.473888900000006</v>
       </c>
       <c r="B25">
-        <v>44.986960000000003</v>
+        <v>44.997202219999998</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>345</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="G25">
-        <v>55427</v>
+        <v>55447</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>349</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" t="s">
-        <v>507</v>
-      </c>
-      <c r="R25" t="s">
-        <v>225</v>
+        <v>350</v>
+      </c>
+      <c r="N25" t="s">
+        <v>351</v>
       </c>
       <c r="S25" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="T25" t="s">
+        <v>352</v>
       </c>
       <c r="U25" t="s">
-        <v>188</v>
+        <v>353</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W25">
         <v>60</v>
@@ -3343,52 +3574,49 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <v>-93.41156024</v>
+        <v>-93.378865090000005</v>
       </c>
       <c r="B26">
-        <v>44.923783309999997</v>
+        <v>44.98611502</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G26">
-        <v>55343</v>
+        <v>55427</v>
       </c>
       <c r="H26" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>196</v>
+        <v>260</v>
+      </c>
+      <c r="R26" t="s">
+        <v>224</v>
       </c>
       <c r="S26" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="T26" t="s">
-        <v>197</v>
-      </c>
-      <c r="U26" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W26">
         <v>60</v>
@@ -3399,46 +3627,52 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>-92.719909999999999</v>
+        <v>-93.262404279999998</v>
       </c>
       <c r="B27">
-        <v>44.974789999999999</v>
+        <v>44.908629570000002</v>
       </c>
       <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27">
+        <v>55417</v>
+      </c>
+      <c r="H27" t="s">
+        <v>318</v>
+      </c>
+      <c r="I27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" t="s">
+        <v>319</v>
+      </c>
+      <c r="K27" t="s">
+        <v>178</v>
+      </c>
+      <c r="N27" t="s">
+        <v>320</v>
+      </c>
+      <c r="S27" t="s">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27">
-        <v>54016</v>
-      </c>
-      <c r="H27" t="s">
-        <v>201</v>
-      </c>
-      <c r="I27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>506</v>
-      </c>
-      <c r="S27" t="s">
-        <v>41</v>
+      <c r="T27" t="s">
+        <v>321</v>
       </c>
       <c r="U27" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W27">
         <v>60</v>
@@ -3449,46 +3683,52 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <v>-93.063100000000006</v>
+        <v>-93.506930420000003</v>
       </c>
       <c r="B28">
-        <v>44.830500000000001</v>
+        <v>44.968517650000003</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="G28">
-        <v>55077</v>
+        <v>55391</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>450</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" t="s">
-        <v>522</v>
+        <v>451</v>
+      </c>
+      <c r="O28" t="s">
+        <v>452</v>
       </c>
       <c r="S28" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="T28" t="s">
+        <v>453</v>
       </c>
       <c r="U28" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="V28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W28">
         <v>60</v>
@@ -3499,52 +3739,52 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>-93.27801925</v>
+        <v>-93.425967</v>
       </c>
       <c r="B29">
-        <v>44.924727220000001</v>
+        <v>45.202330000000003</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="G29">
-        <v>55409</v>
+        <v>55327</v>
       </c>
       <c r="H29" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
-      </c>
-      <c r="R29" t="s">
-        <v>212</v>
+        <v>138</v>
+      </c>
+      <c r="P29" t="s">
+        <v>139</v>
       </c>
       <c r="S29" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="T29" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="U29" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="V29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W29">
         <v>60</v>
@@ -3555,46 +3795,49 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>-93.242890169999995</v>
+        <v>-93.259001249999997</v>
       </c>
       <c r="B30">
-        <v>44.645831829999999</v>
+        <v>44.934401080000001</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>428</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="G30">
-        <v>55044</v>
+        <v>55407</v>
       </c>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>429</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>430</v>
+      </c>
+      <c r="J30" t="s">
+        <v>431</v>
       </c>
       <c r="K30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>329</v>
+        <v>432</v>
+      </c>
+      <c r="O30" t="s">
+        <v>433</v>
       </c>
       <c r="S30" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" t="s">
-        <v>219</v>
+        <v>101</v>
+      </c>
+      <c r="T30" t="s">
+        <v>434</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W30">
         <v>60</v>
@@ -3605,52 +3848,46 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>-93.315818309999997</v>
+        <v>-93.268997639999995</v>
       </c>
       <c r="B31">
-        <v>44.92463549</v>
+        <v>44.97524739</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31">
+        <v>55402</v>
+      </c>
+      <c r="H31" t="s">
         <v>97</v>
       </c>
-      <c r="G31">
-        <v>55410</v>
-      </c>
-      <c r="H31" t="s">
-        <v>222</v>
-      </c>
       <c r="I31" t="s">
-        <v>223</v>
-      </c>
-      <c r="J31" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
-      </c>
-      <c r="R31" t="s">
-        <v>225</v>
+        <v>99</v>
+      </c>
+      <c r="N31" t="s">
+        <v>100</v>
       </c>
       <c r="S31" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="T31" t="s">
-        <v>227</v>
-      </c>
-      <c r="U31" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W31">
         <v>60</v>
@@ -3661,70 +3898,46 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>-93.28591978</v>
+        <v>-93.260828880000005</v>
       </c>
       <c r="B32">
-        <v>44.981227310000001</v>
+        <v>44.978882470000002</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32">
-        <v>55405</v>
+        <v>55401</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J32" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="M32" t="s">
-        <v>235</v>
-      </c>
-      <c r="N32" t="s">
-        <v>236</v>
-      </c>
-      <c r="O32" t="s">
-        <v>237</v>
-      </c>
-      <c r="P32" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R32" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="S32" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="T32" t="s">
-        <v>241</v>
-      </c>
-      <c r="U32" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="V32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W32">
         <v>60</v>
@@ -3735,52 +3948,46 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>-93.443520269999993</v>
+        <v>-93.874388999999994</v>
       </c>
       <c r="B33">
-        <v>45.103781750000003</v>
+        <v>45.173301000000002</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="G33">
-        <v>55369</v>
+        <v>55313</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
-      </c>
-      <c r="J33" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
-      </c>
-      <c r="O33" t="s">
-        <v>111</v>
+        <v>29</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>505</v>
       </c>
       <c r="S33" t="s">
-        <v>66</v>
-      </c>
-      <c r="T33" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="U33" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="V33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W33">
         <v>60</v>
@@ -3791,46 +3998,46 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <v>-93.02346</v>
+        <v>-92.455960000000005</v>
       </c>
       <c r="B34">
-        <v>44.996989999999997</v>
+        <v>44.001130000000003</v>
       </c>
       <c r="C34">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="G34">
-        <v>55109</v>
+        <v>55904</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>379</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="K34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O34" t="s">
-        <v>508</v>
+        <v>29</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>195</v>
       </c>
       <c r="S34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="V34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W34">
         <v>60</v>
@@ -3841,49 +4048,43 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
-        <v>-93.378865090000005</v>
+        <v>-93.161739999999995</v>
       </c>
       <c r="B35">
-        <v>44.98611502</v>
+        <v>44.455100000000002</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>373</v>
       </c>
       <c r="G35">
-        <v>55427</v>
+        <v>55057</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" t="s">
-        <v>259</v>
-      </c>
-      <c r="J35" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
-      </c>
-      <c r="R35" t="s">
-        <v>225</v>
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>328</v>
       </c>
       <c r="S35" t="s">
-        <v>102</v>
-      </c>
-      <c r="T35" t="s">
-        <v>262</v>
+        <v>40</v>
+      </c>
+      <c r="U35" t="s">
+        <v>375</v>
       </c>
       <c r="V35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W35">
         <v>60</v>
@@ -3894,55 +4095,46 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
-        <v>-93.238939920000007</v>
+        <v>-93.242890169999995</v>
       </c>
       <c r="B36">
-        <v>44.947987689999998</v>
+        <v>44.645831829999999</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="G36">
-        <v>55407</v>
+        <v>55044</v>
       </c>
       <c r="H36" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
-      </c>
-      <c r="J36" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
-      </c>
-      <c r="M36" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="Q36" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
       <c r="S36" t="s">
-        <v>66</v>
-      </c>
-      <c r="T36" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="U36" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="V36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W36">
         <v>60</v>
@@ -3953,52 +4145,46 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
-        <v>-93.2561532</v>
+        <v>-93.424610000000001</v>
       </c>
       <c r="B37">
-        <v>44.978557719999998</v>
+        <v>44.714300000000001</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>361</v>
       </c>
       <c r="G37">
-        <v>55401</v>
+        <v>55372</v>
       </c>
       <c r="H37" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
-      </c>
-      <c r="J37" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="Q37" t="s">
-        <v>276</v>
+        <v>505</v>
       </c>
       <c r="S37" t="s">
-        <v>66</v>
-      </c>
-      <c r="T37" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="U37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W37">
         <v>60</v>
@@ -4009,52 +4195,46 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
-        <v>-93.267168600000005</v>
+        <v>-93.208690000000004</v>
       </c>
       <c r="B38">
-        <v>44.975266300000001</v>
+        <v>44.734789999999997</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="G38">
-        <v>55487</v>
+        <v>55124</v>
       </c>
       <c r="H38" t="s">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>280</v>
-      </c>
-      <c r="J38" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
-      </c>
-      <c r="O38" t="s">
-        <v>282</v>
+        <v>29</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>64</v>
       </c>
       <c r="S38" t="s">
-        <v>66</v>
-      </c>
-      <c r="T38" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="U38" t="s">
-        <v>284</v>
+        <v>56</v>
       </c>
       <c r="V38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W38">
         <v>60</v>
@@ -4065,52 +4245,46 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
-        <v>-93.465455669999997</v>
+        <v>-93.127529999999993</v>
       </c>
       <c r="B39">
-        <v>44.940518529999999</v>
+        <v>44.747709999999998</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>285</v>
+        <v>395</v>
       </c>
       <c r="E39" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="F39" t="s">
-        <v>287</v>
+        <v>397</v>
       </c>
       <c r="G39">
-        <v>55345</v>
+        <v>55068</v>
       </c>
       <c r="H39" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
-      </c>
-      <c r="J39" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>269</v>
+        <v>525</v>
       </c>
       <c r="S39" t="s">
-        <v>66</v>
-      </c>
-      <c r="T39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s">
         <v>291</v>
       </c>
-      <c r="U39" t="s">
-        <v>292</v>
-      </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W39">
         <v>60</v>
@@ -4121,46 +4295,46 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
-        <v>-93.799229999999994</v>
+        <v>-93.281549999999996</v>
       </c>
       <c r="B40">
-        <v>45.302010000000003</v>
+        <v>44.772419999999997</v>
       </c>
       <c r="C40">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>87</v>
       </c>
       <c r="G40">
-        <v>55362</v>
+        <v>55337</v>
       </c>
       <c r="H40" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" t="s">
-        <v>523</v>
+        <v>29</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>64</v>
       </c>
       <c r="S40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U40" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="V40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W40">
         <v>60</v>
@@ -4171,52 +4345,46 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41">
-        <v>-93.664526010000003</v>
+        <v>-93.340203209999999</v>
       </c>
       <c r="B41">
-        <v>44.937047810000003</v>
+        <v>44.778434969999999</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>299</v>
+        <v>404</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>406</v>
       </c>
       <c r="G41">
-        <v>55364</v>
+        <v>55378</v>
       </c>
       <c r="H41" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="I41" t="s">
-        <v>303</v>
-      </c>
-      <c r="J41" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>502</v>
+        <v>29</v>
+      </c>
+      <c r="R41" t="s">
+        <v>510</v>
       </c>
       <c r="S41" t="s">
-        <v>102</v>
-      </c>
-      <c r="T41" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="U41" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="V41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W41">
         <v>60</v>
@@ -4227,52 +4395,46 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42">
-        <v>-93.391522600000002</v>
+        <v>-93.230577999999994</v>
       </c>
       <c r="B42">
-        <v>45.02124937</v>
+        <v>44.789363999999999</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="G42">
-        <v>55428</v>
+        <v>55337</v>
       </c>
       <c r="H42" t="s">
-        <v>311</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
-      </c>
-      <c r="J42" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>503</v>
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>500</v>
       </c>
       <c r="S42" t="s">
-        <v>66</v>
-      </c>
-      <c r="T42" t="s">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="U42" t="s">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="V42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W42">
         <v>60</v>
@@ -4283,52 +4445,46 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
-        <v>-93.262404279999998</v>
+        <v>-93.063100000000006</v>
       </c>
       <c r="B43">
-        <v>44.908629570000002</v>
+        <v>44.830500000000001</v>
       </c>
       <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43">
+        <v>55077</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" t="s">
         <v>29</v>
       </c>
-      <c r="D43" t="s">
-        <v>317</v>
-      </c>
-      <c r="E43" t="s">
-        <v>318</v>
-      </c>
-      <c r="F43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43">
-        <v>55417</v>
-      </c>
-      <c r="H43" t="s">
-        <v>319</v>
-      </c>
-      <c r="I43" t="s">
-        <v>177</v>
-      </c>
-      <c r="J43" t="s">
-        <v>320</v>
-      </c>
-      <c r="K43" t="s">
-        <v>179</v>
-      </c>
-      <c r="N43" t="s">
-        <v>321</v>
+      <c r="R43" t="s">
+        <v>521</v>
       </c>
       <c r="S43" t="s">
-        <v>66</v>
-      </c>
-      <c r="T43" t="s">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="U43" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="V43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W43">
         <v>60</v>
@@ -4339,52 +4495,46 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44">
-        <v>-93.262177269999995</v>
+        <v>-92.783293479999998</v>
       </c>
       <c r="B44">
-        <v>44.995133260000003</v>
+        <v>44.899259460000003</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>55413</v>
+        <v>55001</v>
       </c>
       <c r="H44" t="s">
-        <v>326</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
-      </c>
-      <c r="J44" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>329</v>
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>514</v>
       </c>
       <c r="S44" t="s">
-        <v>66</v>
-      </c>
-      <c r="T44" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="U44" t="s">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="V44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W44">
         <v>60</v>
@@ -4395,46 +4545,46 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
-        <v>-92.96499</v>
+        <v>-93.080629999999999</v>
       </c>
       <c r="B45">
-        <v>44.971760000000003</v>
+        <v>44.912550000000003</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="E45" t="s">
-        <v>333</v>
+        <v>464</v>
       </c>
       <c r="F45" t="s">
-        <v>334</v>
+        <v>465</v>
       </c>
       <c r="G45">
-        <v>55128</v>
+        <v>55118</v>
       </c>
       <c r="H45" t="s">
-        <v>335</v>
+        <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>336</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" t="s">
-        <v>524</v>
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
+        <v>512</v>
       </c>
       <c r="S45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U45" t="s">
-        <v>337</v>
+        <v>467</v>
       </c>
       <c r="V45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W45">
         <v>60</v>
@@ -4445,52 +4595,46 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46">
-        <v>-93.402580240000006</v>
+        <v>-92.933160000000001</v>
       </c>
       <c r="B46">
-        <v>45.12072336</v>
+        <v>44.915970000000002</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>338</v>
+        <v>479</v>
       </c>
       <c r="E46" t="s">
-        <v>339</v>
+        <v>480</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>481</v>
       </c>
       <c r="G46">
-        <v>55369</v>
+        <v>55125</v>
       </c>
       <c r="H46" t="s">
-        <v>341</v>
+        <v>482</v>
       </c>
       <c r="I46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J46" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
-      </c>
-      <c r="M46" t="s">
-        <v>504</v>
+        <v>29</v>
+      </c>
+      <c r="R46" t="s">
+        <v>510</v>
       </c>
       <c r="S46" t="s">
-        <v>102</v>
-      </c>
-      <c r="T46" t="s">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="U46" t="s">
-        <v>345</v>
+        <v>483</v>
       </c>
       <c r="V46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W46">
         <v>60</v>
@@ -4501,52 +4645,46 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47">
-        <v>-93.473888900000006</v>
+        <v>-93.145229999999998</v>
       </c>
       <c r="B47">
-        <v>44.997202219999998</v>
+        <v>44.94191</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="E47" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="G47">
-        <v>55447</v>
+        <v>55105</v>
       </c>
       <c r="H47" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="I47" t="s">
-        <v>350</v>
-      </c>
-      <c r="J47" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>351</v>
-      </c>
-      <c r="N47" t="s">
-        <v>352</v>
+        <v>29</v>
+      </c>
+      <c r="P47" t="s">
+        <v>527</v>
       </c>
       <c r="S47" t="s">
-        <v>102</v>
-      </c>
-      <c r="T47" t="s">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="U47" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="V47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W47">
         <v>60</v>
@@ -4557,46 +4695,46 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48">
-        <v>-93.580187940000002</v>
+        <v>-93.085080000000005</v>
       </c>
       <c r="B48">
-        <v>45.56948766</v>
+        <v>44.949590000000001</v>
       </c>
       <c r="C48">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="E48" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>129</v>
       </c>
       <c r="G48">
-        <v>55371</v>
+        <v>55101</v>
       </c>
       <c r="H48" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q48" t="s">
-        <v>509</v>
+        <v>511</v>
+      </c>
+      <c r="R48" t="s">
+        <v>510</v>
       </c>
       <c r="S48" t="s">
-        <v>41</v>
-      </c>
-      <c r="U48" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="V48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W48">
         <v>60</v>
@@ -4607,46 +4745,46 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49">
-        <v>-93.424610000000001</v>
+        <v>-93.28013</v>
       </c>
       <c r="B49">
-        <v>44.714300000000001</v>
+        <v>44.955219999999997</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="E49" t="s">
-        <v>361</v>
+        <v>475</v>
       </c>
       <c r="F49" t="s">
-        <v>362</v>
+        <v>476</v>
       </c>
       <c r="G49">
-        <v>55372</v>
+        <v>55408</v>
       </c>
       <c r="H49" t="s">
-        <v>363</v>
+        <v>477</v>
       </c>
       <c r="I49" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q49" t="s">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="S49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U49" t="s">
-        <v>85</v>
+        <v>478</v>
       </c>
       <c r="V49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W49">
         <v>60</v>
@@ -4657,52 +4795,46 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50">
-        <v>-93.265853750000005</v>
+        <v>-92.96499</v>
       </c>
       <c r="B50">
-        <v>44.887157989999999</v>
+        <v>44.971760000000003</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="F50" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="G50">
-        <v>55423</v>
+        <v>55128</v>
       </c>
       <c r="H50" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="I50" t="s">
-        <v>369</v>
-      </c>
-      <c r="J50" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>371</v>
+        <v>29</v>
+      </c>
+      <c r="O50" t="s">
+        <v>523</v>
       </c>
       <c r="S50" t="s">
-        <v>66</v>
-      </c>
-      <c r="T50" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="U50" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="V50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W50">
         <v>60</v>
@@ -4713,43 +4845,46 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51">
-        <v>-93.161739999999995</v>
+        <v>-92.719909999999999</v>
       </c>
       <c r="B51">
-        <v>44.455100000000002</v>
+        <v>44.974789999999999</v>
       </c>
       <c r="C51">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>372</v>
+        <v>197</v>
       </c>
       <c r="E51" t="s">
-        <v>373</v>
+        <v>198</v>
       </c>
       <c r="F51" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="G51">
-        <v>55057</v>
+        <v>54016</v>
       </c>
       <c r="H51" t="s">
-        <v>375</v>
+        <v>200</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q51" t="s">
-        <v>329</v>
+        <v>505</v>
       </c>
       <c r="S51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U51" t="s">
-        <v>376</v>
+        <v>201</v>
       </c>
       <c r="V51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W51">
         <v>60</v>
@@ -4760,46 +4895,46 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52">
-        <v>-92.455960000000005</v>
+        <v>-93.144052130000006</v>
       </c>
       <c r="B52">
-        <v>44.001130000000003</v>
+        <v>44.983633040000001</v>
       </c>
       <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52">
+        <v>55103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I52" t="s">
         <v>46</v>
       </c>
-      <c r="D52" t="s">
-        <v>377</v>
-      </c>
-      <c r="E52" t="s">
-        <v>378</v>
-      </c>
-      <c r="F52" t="s">
-        <v>379</v>
-      </c>
-      <c r="G52">
-        <v>55904</v>
-      </c>
-      <c r="H52" t="s">
-        <v>380</v>
-      </c>
-      <c r="I52" t="s">
-        <v>381</v>
-      </c>
       <c r="K52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>196</v>
+        <v>29</v>
+      </c>
+      <c r="P52" t="s">
+        <v>518</v>
       </c>
       <c r="S52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U52" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="V52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W52">
         <v>60</v>
@@ -4810,46 +4945,49 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53">
-        <v>-93.7346</v>
+        <v>-93.378780000000006</v>
       </c>
       <c r="B53">
-        <v>45.088560000000001</v>
+        <v>44.986960000000003</v>
       </c>
       <c r="C53">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>382</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="G53">
-        <v>55373</v>
+        <v>55427</v>
       </c>
       <c r="H53" t="s">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" t="s">
-        <v>525</v>
+        <v>29</v>
+      </c>
+      <c r="L53" t="s">
+        <v>506</v>
+      </c>
+      <c r="R53" t="s">
+        <v>224</v>
       </c>
       <c r="S53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U53" t="s">
-        <v>385</v>
+        <v>187</v>
       </c>
       <c r="V53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W53">
         <v>60</v>
@@ -4860,52 +4998,46 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54">
-        <v>-93.552147840000003</v>
+        <v>-93.02346</v>
       </c>
       <c r="B54">
-        <v>45.187066489999999</v>
+        <v>44.996989999999997</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="G54">
-        <v>55347</v>
+        <v>55109</v>
       </c>
       <c r="H54" t="s">
-        <v>389</v>
+        <v>253</v>
       </c>
       <c r="I54" t="s">
-        <v>390</v>
-      </c>
-      <c r="J54" t="s">
-        <v>391</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>392</v>
-      </c>
-      <c r="N54" t="s">
-        <v>393</v>
+        <v>29</v>
+      </c>
+      <c r="O54" t="s">
+        <v>507</v>
       </c>
       <c r="S54" t="s">
-        <v>102</v>
-      </c>
-      <c r="T54" t="s">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="U54" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="V54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W54">
         <v>60</v>
@@ -4916,46 +5048,46 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55">
-        <v>-93.127529999999993</v>
+        <v>-93.178299999999993</v>
       </c>
       <c r="B55">
-        <v>44.747709999999998</v>
+        <v>45.00497</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E55" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G55">
-        <v>55068</v>
+        <v>55113</v>
       </c>
       <c r="H55" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>30</v>
-      </c>
-      <c r="M55" t="s">
-        <v>526</v>
+        <v>29</v>
+      </c>
+      <c r="N55" t="s">
+        <v>509</v>
       </c>
       <c r="S55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U55" t="s">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="V55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W55">
         <v>60</v>
@@ -4966,46 +5098,46 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56">
-        <v>-93.178299999999993</v>
+        <v>-93.051959999999994</v>
       </c>
       <c r="B56">
-        <v>45.00497</v>
+        <v>45.051380000000002</v>
       </c>
       <c r="C56">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="E56" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="F56" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="G56">
-        <v>55113</v>
+        <v>55110</v>
       </c>
       <c r="H56" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N56" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="S56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U56" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="V56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W56">
         <v>60</v>
@@ -5016,46 +5148,46 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57">
-        <v>-93.340203209999999</v>
+        <v>-93.135266880000003</v>
       </c>
       <c r="B57">
-        <v>44.778434969999999</v>
+        <v>45.080821800000002</v>
       </c>
       <c r="C57">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E57" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F57" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G57">
-        <v>55378</v>
+        <v>55126</v>
       </c>
       <c r="H57" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" t="s">
-        <v>511</v>
+        <v>29</v>
+      </c>
+      <c r="M57" t="s">
+        <v>526</v>
       </c>
       <c r="S57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U57" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="V57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W57">
         <v>60</v>
@@ -5066,46 +5198,46 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58">
-        <v>-93.135266880000003</v>
+        <v>-93.7346</v>
       </c>
       <c r="B58">
-        <v>45.080821800000002</v>
+        <v>45.088560000000001</v>
       </c>
       <c r="C58">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E58" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
-        <v>412</v>
+        <v>96</v>
       </c>
       <c r="G58">
-        <v>55126</v>
+        <v>55373</v>
       </c>
       <c r="H58" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="I58" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>30</v>
-      </c>
-      <c r="M58" t="s">
-        <v>527</v>
+        <v>29</v>
+      </c>
+      <c r="P58" t="s">
+        <v>524</v>
       </c>
       <c r="S58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U58" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="V58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W58">
         <v>60</v>
@@ -5116,43 +5248,46 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59">
-        <v>-93.048416000000003</v>
+        <v>-93.356430000000003</v>
       </c>
       <c r="B59">
-        <v>44.888627</v>
+        <v>45.218960000000003</v>
       </c>
       <c r="C59">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>416</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="G59">
-        <v>55075</v>
+        <v>55304</v>
       </c>
       <c r="H59" t="s">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="I59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" t="s">
+        <v>515</v>
+      </c>
+      <c r="S59" t="s">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s">
         <v>47</v>
       </c>
-      <c r="K59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N59" t="s">
-        <v>524</v>
-      </c>
-      <c r="U59" t="s">
-        <v>420</v>
-      </c>
       <c r="V59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W59">
         <v>60</v>
@@ -5163,46 +5298,46 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60">
-        <v>-93.085080000000005</v>
+        <v>-93.799229999999994</v>
       </c>
       <c r="B60">
-        <v>44.949590000000001</v>
+        <v>45.302010000000003</v>
       </c>
       <c r="C60">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>421</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
-        <v>422</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="G60">
-        <v>55101</v>
+        <v>55362</v>
       </c>
       <c r="H60" t="s">
-        <v>423</v>
+        <v>295</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="K60" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>512</v>
-      </c>
-      <c r="R60" t="s">
-        <v>511</v>
+        <v>29</v>
+      </c>
+      <c r="O60" t="s">
+        <v>522</v>
       </c>
       <c r="S60" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="U60" t="s">
+        <v>297</v>
       </c>
       <c r="V60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W60">
         <v>60</v>
@@ -5213,46 +5348,46 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61">
-        <v>-93.145229999999998</v>
+        <v>-92.890249999999995</v>
       </c>
       <c r="B61">
-        <v>44.94191</v>
+        <v>45.372700000000002</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>424</v>
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>425</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G61">
-        <v>55105</v>
+        <v>55013</v>
       </c>
       <c r="H61" t="s">
-        <v>426</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P61" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="S61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U61" t="s">
-        <v>427</v>
+        <v>126</v>
       </c>
       <c r="V61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W61">
         <v>60</v>
@@ -5263,49 +5398,43 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62">
-        <v>-93.259001249999997</v>
+        <v>-93.584225200000006</v>
       </c>
       <c r="B62">
-        <v>44.934401080000001</v>
+        <v>45.438823290000002</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="E62" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>486</v>
       </c>
       <c r="G62">
-        <v>55407</v>
+        <v>55398</v>
       </c>
       <c r="H62" t="s">
-        <v>430</v>
-      </c>
-      <c r="I62" t="s">
-        <v>431</v>
-      </c>
-      <c r="J62" t="s">
-        <v>432</v>
+        <v>357</v>
       </c>
       <c r="K62" t="s">
-        <v>433</v>
-      </c>
-      <c r="O62" t="s">
-        <v>434</v>
+        <v>29</v>
+      </c>
+      <c r="M62" t="s">
+        <v>497</v>
       </c>
       <c r="S62" t="s">
-        <v>102</v>
-      </c>
-      <c r="T62" t="s">
-        <v>435</v>
+        <v>40</v>
+      </c>
+      <c r="U62" t="s">
+        <v>487</v>
       </c>
       <c r="V62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W62">
         <v>60</v>
@@ -5316,52 +5445,46 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63">
-        <v>-93.227817450000003</v>
+        <v>-93.580187940000002</v>
       </c>
       <c r="B63">
-        <v>44.974341600000002</v>
+        <v>45.56948766</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="E63" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>356</v>
       </c>
       <c r="G63">
-        <v>55455</v>
+        <v>55371</v>
       </c>
       <c r="H63" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="I63" t="s">
-        <v>439</v>
-      </c>
-      <c r="J63" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="K63" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" t="s">
-        <v>101</v>
+        <v>29</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>508</v>
       </c>
       <c r="S63" t="s">
-        <v>102</v>
-      </c>
-      <c r="T63" t="s">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="U63" t="s">
-        <v>441</v>
+        <v>84</v>
       </c>
       <c r="V63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W63">
         <v>60</v>
@@ -5372,46 +5495,46 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64">
-        <v>-93.051959999999994</v>
+        <v>-93.577804</v>
       </c>
       <c r="B64">
-        <v>45.051380000000002</v>
+        <v>45.305881999999997</v>
       </c>
       <c r="C64">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>442</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>443</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>444</v>
+        <v>156</v>
       </c>
       <c r="G64">
-        <v>55110</v>
+        <v>55330</v>
       </c>
       <c r="H64" t="s">
-        <v>445</v>
+        <v>157</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K64" t="s">
-        <v>30</v>
-      </c>
-      <c r="N64" t="s">
-        <v>524</v>
+        <v>29</v>
+      </c>
+      <c r="O64" t="s">
+        <v>518</v>
       </c>
       <c r="S64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U64" t="s">
-        <v>446</v>
+        <v>158</v>
       </c>
       <c r="V64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W64">
         <v>60</v>
@@ -5422,52 +5545,49 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65">
-        <v>-93.506930420000003</v>
+        <v>-93.091020999999998</v>
       </c>
       <c r="B65">
-        <v>44.968517650000003</v>
+        <v>44.949686</v>
       </c>
       <c r="C65">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="E65" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="F65" t="s">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="G65">
-        <v>55391</v>
+        <v>55101</v>
       </c>
       <c r="H65" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="I65" t="s">
-        <v>451</v>
-      </c>
-      <c r="J65" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>452</v>
+        <v>29</v>
+      </c>
+      <c r="M65" t="s">
+        <v>498</v>
       </c>
       <c r="O65" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="S65" t="s">
-        <v>102</v>
-      </c>
-      <c r="T65" t="s">
-        <v>454</v>
+        <v>40</v>
       </c>
       <c r="U65" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="V65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W65">
         <v>60</v>
@@ -5478,52 +5598,43 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66">
-        <v>-93.288696079999994</v>
+        <v>-93.383949999999999</v>
       </c>
       <c r="B66">
-        <v>44.999326080000003</v>
+        <v>45.197560000000003</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>456</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>457</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G66">
-        <v>55411</v>
+        <v>55303</v>
       </c>
       <c r="H66" t="s">
-        <v>458</v>
+        <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>459</v>
-      </c>
-      <c r="J66" t="s">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="K66" t="s">
-        <v>461</v>
-      </c>
-      <c r="P66" t="s">
-        <v>462</v>
-      </c>
-      <c r="S66" t="s">
-        <v>66</v>
-      </c>
-      <c r="T66" t="s">
-        <v>142</v>
+        <v>29</v>
+      </c>
+      <c r="L66" t="s">
+        <v>516</v>
       </c>
       <c r="U66" t="s">
-        <v>463</v>
+        <v>51</v>
       </c>
       <c r="V66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W66">
         <v>60</v>
@@ -5534,46 +5645,43 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67">
-        <v>-93.080629999999999</v>
+        <v>-93.232900000000001</v>
       </c>
       <c r="B67">
-        <v>44.912550000000003</v>
+        <v>45.131810000000002</v>
       </c>
       <c r="C67">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>464</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>465</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>466</v>
+        <v>26</v>
       </c>
       <c r="G67">
-        <v>55118</v>
+        <v>55434</v>
       </c>
       <c r="H67" t="s">
-        <v>467</v>
+        <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K67" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>504</v>
+      </c>
+      <c r="U67" t="s">
         <v>30</v>
       </c>
-      <c r="P67" t="s">
-        <v>513</v>
-      </c>
-      <c r="S67" t="s">
-        <v>41</v>
-      </c>
-      <c r="U67" t="s">
-        <v>468</v>
-      </c>
       <c r="V67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W67">
         <v>60</v>
@@ -5584,43 +5692,43 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68">
-        <v>-93.010060999999993</v>
+        <v>-93.235889999999998</v>
       </c>
       <c r="B68">
-        <v>45.084986000000001</v>
+        <v>45.048969999999997</v>
       </c>
       <c r="C68">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>469</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>470</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>55110</v>
+        <v>55421</v>
       </c>
       <c r="H68" t="s">
-        <v>472</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>473</v>
+        <v>28</v>
       </c>
       <c r="K68" t="s">
-        <v>30</v>
-      </c>
-      <c r="P68" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" t="s">
         <v>513</v>
       </c>
       <c r="U68" t="s">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="V68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W68">
         <v>60</v>
@@ -5631,46 +5739,43 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69">
-        <v>-93.28013</v>
+        <v>-93.172629999999998</v>
       </c>
       <c r="B69">
-        <v>44.955219999999997</v>
+        <v>44.83963</v>
       </c>
       <c r="C69">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>475</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>476</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>477</v>
+        <v>151</v>
       </c>
       <c r="G69">
-        <v>55408</v>
+        <v>55121</v>
       </c>
       <c r="H69" t="s">
-        <v>478</v>
+        <v>152</v>
       </c>
       <c r="I69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>180</v>
-      </c>
-      <c r="S69" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="N69" t="s">
+        <v>519</v>
       </c>
       <c r="U69" t="s">
-        <v>479</v>
+        <v>153</v>
       </c>
       <c r="V69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W69">
         <v>60</v>
@@ -5681,46 +5786,43 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70">
-        <v>-92.933160000000001</v>
+        <v>-93.14864</v>
       </c>
       <c r="B70">
-        <v>44.915970000000002</v>
+        <v>44.626469999999998</v>
       </c>
       <c r="C70">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>480</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>481</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>482</v>
+        <v>170</v>
       </c>
       <c r="G70">
-        <v>55125</v>
+        <v>55024</v>
       </c>
       <c r="H70" t="s">
-        <v>483</v>
+        <v>171</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" t="s">
-        <v>511</v>
-      </c>
-      <c r="S70" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="O70" t="s">
+        <v>520</v>
       </c>
       <c r="U70" t="s">
-        <v>484</v>
+        <v>172</v>
       </c>
       <c r="V70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W70">
         <v>60</v>
@@ -5731,43 +5833,43 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71">
-        <v>-93.584225200000006</v>
+        <v>-93.048416000000003</v>
       </c>
       <c r="B71">
-        <v>45.438823290000002</v>
+        <v>44.888627</v>
       </c>
       <c r="C71">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="E71" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="F71" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="G71">
-        <v>55398</v>
+        <v>55075</v>
       </c>
       <c r="H71" t="s">
-        <v>358</v>
+        <v>418</v>
+      </c>
+      <c r="I71" t="s">
+        <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>30</v>
-      </c>
-      <c r="M71" t="s">
-        <v>498</v>
-      </c>
-      <c r="S71" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="N71" t="s">
+        <v>523</v>
       </c>
       <c r="U71" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="V71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W71">
         <v>60</v>
@@ -5778,49 +5880,43 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72">
-        <v>-93.091020999999998</v>
+        <v>-93.010060999999993</v>
       </c>
       <c r="B72">
-        <v>44.949686</v>
+        <v>45.084986000000001</v>
       </c>
       <c r="C72">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="E72" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="G72">
-        <v>55101</v>
+        <v>55110</v>
       </c>
       <c r="H72" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>472</v>
       </c>
       <c r="K72" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" t="s">
-        <v>499</v>
-      </c>
-      <c r="O72" t="s">
-        <v>500</v>
-      </c>
-      <c r="S72" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="P72" t="s">
+        <v>512</v>
       </c>
       <c r="U72" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="V72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W72">
         <v>60</v>
@@ -5837,40 +5933,40 @@
         <v>45.232469000000002</v>
       </c>
       <c r="C73">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
+        <v>493</v>
+      </c>
+      <c r="E73" t="s">
+        <v>495</v>
+      </c>
+      <c r="F73" t="s">
         <v>494</v>
-      </c>
-      <c r="E73" t="s">
-        <v>496</v>
-      </c>
-      <c r="F73" t="s">
-        <v>495</v>
       </c>
       <c r="G73">
         <v>55303</v>
       </c>
       <c r="H73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O73" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W73">
         <v>60</v>
@@ -5880,6 +5976,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:X73">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5892,22 +5991,264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2017</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
